--- a/SHREYASH TASK 2.xlsx
+++ b/SHREYASH TASK 2.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27729"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data analytics\github\task1_excel\task 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data analytics\github\task1_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAECF62D-9F06-4983-BB2A-DD59210060C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9790A82B-BD7B-4A7E-BC9E-FA9BD6D36D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{08F51035-5876-433E-92CA-85CA2818EC2A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{08F51035-5876-433E-92CA-85CA2818EC2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="task2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="task2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10087" uniqueCount="1995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10088" uniqueCount="1996">
   <si>
     <t>Emp Id</t>
   </si>
@@ -6026,6 +6027,9 @@
   </si>
   <si>
     <t>Sum of Age</t>
+  </si>
+  <si>
+    <t>dfdrfdfdf</t>
   </si>
 </sst>
 </file>
@@ -6078,14 +6082,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6120,7 +6123,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Book1.xlsx]Sheet5!PivotTable10</c:name>
+    <c:name>[SHREYASH TASK 2.xlsx]Sheet5!PivotTable10</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -9350,7 +9353,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Book1.xlsx]task2!PivotTable8</c:name>
+    <c:name>[SHREYASH TASK 2.xlsx]task2!PivotTable8</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -28172,7 +28175,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{13CF48D3-34F8-484C-AB21-88E451A5AB0F}" name="PivotTable10" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{13CF48D3-34F8-484C-AB21-88E451A5AB0F}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A5:Q21" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -28639,7 +28642,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ACBF7321-9562-4F95-98FD-21C2C8B923FD}" name="PivotTable8" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ACBF7321-9562-4F95-98FD-21C2C8B923FD}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:I18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -29191,7 +29194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF54FBCB-2A37-4B85-A150-21D8D14C5E34}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -29320,744 +29323,744 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>1358051</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>334</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>1862829</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <v>905</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8">
         <v>1236742</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8">
         <v>472</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8">
         <v>1352744</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8">
         <v>470</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8">
         <v>2923021</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8">
         <v>1325</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8">
         <v>892773</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8">
         <v>295</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8">
         <v>1857916</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8">
         <v>639</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8">
         <v>11484076</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8">
         <v>4440</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>368428</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>114</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>682398</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9">
         <v>308</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9">
         <v>865969</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9">
         <v>393</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9">
         <v>1294513</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9">
         <v>385</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9">
         <v>1288079</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9">
         <v>587</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9">
         <v>934962</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9">
         <v>388</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9">
         <v>559545</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9">
         <v>372</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9">
         <v>5993894</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9">
         <v>2547</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>732808</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>261</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>1014426</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10">
         <v>358</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10">
         <v>321403</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10">
         <v>171</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10">
         <v>693318</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10">
         <v>267</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10">
         <v>1422771</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10">
         <v>486</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10">
         <v>645708</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10">
         <v>345</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10">
         <v>247385</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10">
         <v>65</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10">
         <v>5077819</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10">
         <v>1953</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>1015325</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11">
         <v>370</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <v>1754501</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11">
         <v>796</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11">
         <v>1938856</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11">
         <v>613</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11">
         <v>947437</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11">
         <v>380</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11">
         <v>2317322</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11">
         <v>1012</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11">
         <v>1248190</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11">
         <v>382</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11">
         <v>1109363</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11">
         <v>463</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11">
         <v>10330994</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11">
         <v>4016</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>648506</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12">
         <v>326</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12">
         <v>786194</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12">
         <v>361</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12">
         <v>1380014</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12">
         <v>443</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12">
         <v>715880</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12">
         <v>340</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12">
         <v>1023430</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12">
         <v>564</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12">
         <v>1854947</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12">
         <v>527</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12">
         <v>1094301</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12">
         <v>474</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12">
         <v>7503272</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12">
         <v>3035</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13">
         <v>1461310</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13">
         <v>526</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13">
         <v>1907981</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13">
         <v>698</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13">
         <v>1160683</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13">
         <v>569</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13">
         <v>1792711</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13">
         <v>640</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13">
         <v>2616718</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13">
         <v>1187</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13">
         <v>1783989</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13">
         <v>580</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13">
         <v>2396855</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13">
         <v>740</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13">
         <v>13120247</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13">
         <v>4940</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
         <v>235360</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14">
         <v>138</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14">
         <v>979567</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14">
         <v>305</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14">
         <v>812644</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14">
         <v>362</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14">
         <v>729737</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14">
         <v>286</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14">
         <v>1194306</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14">
         <v>537</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14">
         <v>657028</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14">
         <v>159</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14">
         <v>224697</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14">
         <v>145</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14">
         <v>4833339</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14">
         <v>1932</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>1961329</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15">
         <v>567</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15">
         <v>1539780</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15">
         <v>731</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15">
         <v>1346310</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15">
         <v>519</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15">
         <v>1416411</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15">
         <v>587</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15">
         <v>3047161</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15">
         <v>1333</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15">
         <v>2385768</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15">
         <v>843</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15">
         <v>932949</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15">
         <v>390</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15">
         <v>12629708</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15">
         <v>4970</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16">
         <v>1191259</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16">
         <v>504</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16">
         <v>1126780</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16">
         <v>537</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16">
         <v>1504019</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16">
         <v>674</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16">
         <v>2159005</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16">
         <v>840</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16">
         <v>1916412</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16">
         <v>921</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16">
         <v>1610696</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16">
         <v>468</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16">
         <v>2202662</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16">
         <v>885</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16">
         <v>11710833</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16">
         <v>4829</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>614268</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17">
         <v>232</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17">
         <v>1268390</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17">
         <v>474</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17">
         <v>491474</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17">
         <v>133</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17">
         <v>361947</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17">
         <v>157</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17">
         <v>788725</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17">
         <v>372</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17">
         <v>340898</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17">
         <v>186</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17">
         <v>898439</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17">
         <v>314</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17">
         <v>4764141</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17">
         <v>1868</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>168268</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18">
         <v>91</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18">
         <v>1624086</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18">
         <v>586</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18">
         <v>809506</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18">
         <v>312</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18">
         <v>1111311</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18">
         <v>378</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18">
         <v>513643</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18">
         <v>253</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18">
         <v>661786</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18">
         <v>193</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18">
         <v>1127072</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18">
         <v>455</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18">
         <v>6015672</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18">
         <v>2268</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19">
         <v>1636192</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19">
         <v>532</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19">
         <v>2048683</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19">
         <v>798</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19">
         <v>1861543</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19">
         <v>464</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19">
         <v>1801809</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19">
         <v>670</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19">
         <v>3234127</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19">
         <v>1587</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19">
         <v>1373481</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19">
         <v>462</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19">
         <v>1558990</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19">
         <v>711</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19">
         <v>13514825</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19">
         <v>5224</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20">
         <v>431003</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20">
         <v>196</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20">
         <v>631948</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20">
         <v>359</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20">
         <v>1007184</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20">
         <v>310</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20">
         <v>380482</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20">
         <v>157</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20">
         <v>1281784</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20">
         <v>523</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20">
         <v>1169338</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20">
         <v>358</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20">
         <v>1336806</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20">
         <v>457</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20">
         <v>6238545</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q20">
         <v>2360</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>1983</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>11822107</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21">
         <v>4191</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21">
         <v>17227563</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21">
         <v>7216</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21">
         <v>14736347</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21">
         <v>5435</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21">
         <v>14757305</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21">
         <v>5557</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21">
         <v>23567499</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21">
         <v>10687</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21">
         <v>15559564</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21">
         <v>5186</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21">
         <v>15546980</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21">
         <v>6110</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21">
         <v>113217365</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21">
         <v>44382</v>
       </c>
     </row>
@@ -30068,6 +30071,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD211A9-3F42-46F7-A2C0-610F4B9829CB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC31851-718A-4F21-A3B5-6F80BE481467}">
   <dimension ref="A1:O1001"/>
   <sheetViews>
@@ -74396,7 +74417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE4B08E-27C5-489A-AB17-2141FE730151}">
   <dimension ref="A1:I18"/>
   <sheetViews>
@@ -74461,408 +74482,408 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>1358051</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>1862829</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>1236742</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <v>1352744</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5">
         <v>2923021</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5">
         <v>892773</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5">
         <v>1857916</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5">
         <v>11484076</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>368428</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>682398</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>865969</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
         <v>1294513</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6">
         <v>1288079</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6">
         <v>934962</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6">
         <v>559545</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6">
         <v>5993894</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>732808</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>1014426</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>321403</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
         <v>693318</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7">
         <v>1422771</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7">
         <v>645708</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7">
         <v>247385</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7">
         <v>5077819</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>1015325</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>1754501</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>1938856</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <v>947437</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8">
         <v>2317322</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8">
         <v>1248190</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8">
         <v>1109363</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8">
         <v>10330994</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>648506</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>786194</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>1380014</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9">
         <v>715880</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9">
         <v>1023430</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9">
         <v>1854947</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9">
         <v>1094301</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9">
         <v>7503272</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>1461310</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>1907981</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>1160683</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10">
         <v>1792711</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10">
         <v>2616718</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10">
         <v>1783989</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10">
         <v>2396855</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10">
         <v>13120247</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>235360</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11">
         <v>979567</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <v>812644</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11">
         <v>729737</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11">
         <v>1194306</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11">
         <v>657028</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11">
         <v>224697</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11">
         <v>4833339</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>1961329</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12">
         <v>1539780</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12">
         <v>1346310</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12">
         <v>1416411</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12">
         <v>3047161</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12">
         <v>2385768</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12">
         <v>932949</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12">
         <v>12629708</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13">
         <v>1191259</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13">
         <v>1126780</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13">
         <v>1504019</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13">
         <v>2159005</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13">
         <v>1916412</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13">
         <v>1610696</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13">
         <v>2202662</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13">
         <v>11710833</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
         <v>614268</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14">
         <v>1268390</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14">
         <v>491474</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14">
         <v>361947</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14">
         <v>788725</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14">
         <v>340898</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14">
         <v>898439</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14">
         <v>4764141</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>168268</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15">
         <v>1624086</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15">
         <v>809506</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15">
         <v>1111311</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15">
         <v>513643</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15">
         <v>661786</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15">
         <v>1127072</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15">
         <v>6015672</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16">
         <v>1636192</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16">
         <v>2048683</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16">
         <v>1861543</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16">
         <v>1801809</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16">
         <v>3234127</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16">
         <v>1373481</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16">
         <v>1558990</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16">
         <v>13514825</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>431003</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17">
         <v>631948</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17">
         <v>1007184</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17">
         <v>380482</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17">
         <v>1281784</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17">
         <v>1169338</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17">
         <v>1336806</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17">
         <v>6238545</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>1983</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>11822107</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18">
         <v>17227563</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18">
         <v>14736347</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18">
         <v>14757305</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18">
         <v>23567499</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18">
         <v>15559564</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18">
         <v>15546980</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18">
         <v>113217365</v>
       </c>
     </row>
